--- a/Team-Data/2012-13/3-9-2012-13.xlsx
+++ b/Team-Data/2012-13/3-9-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,97 +733,97 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J2" t="n">
         <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
       <c r="R2" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
         <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -792,16 +859,16 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -810,16 +877,16 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -983,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.587</v>
+        <v>0.581</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,34 +1115,34 @@
         <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.441</v>
       </c>
       <c r="L4" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M4" t="n">
         <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O4" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P4" t="n">
         <v>23.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R4" t="n">
         <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
         <v>42.6</v>
@@ -1084,31 +1151,31 @@
         <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
         <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO4" t="n">
         <v>12</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1153,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>13</v>
@@ -1162,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1174,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
@@ -1183,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1248,19 +1315,19 @@
         <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.747</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
         <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U5" t="n">
         <v>19</v>
@@ -1269,7 +1336,7 @@
         <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>6.1</v>
@@ -1278,19 +1345,19 @@
         <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10.6</v>
+        <v>-10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,19 +1369,19 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>27</v>
@@ -1332,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1529,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1684,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1693,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1702,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
@@ -1714,7 +1781,7 @@
         <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1726,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1863,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1881,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
@@ -1893,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
@@ -1905,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.656</v>
+        <v>0.651</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
         <v>17.8</v>
@@ -1979,10 +2046,10 @@
         <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S9" t="n">
         <v>31.7</v>
@@ -1991,13 +2058,13 @@
         <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
@@ -2015,10 +2082,10 @@
         <v>105.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,31 +2115,31 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -2209,10 +2276,10 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
@@ -2233,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
@@ -2272,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="BB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC10" t="n">
         <v>22</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
         <v>35</v>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.547</v>
+        <v>0.556</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,7 +2389,7 @@
         <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.453</v>
@@ -2337,13 +2404,13 @@
         <v>0.395</v>
       </c>
       <c r="O11" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P11" t="n">
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
@@ -2358,10 +2425,10 @@
         <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
@@ -2376,13 +2443,13 @@
         <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2409,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>0.531</v>
+        <v>0.54</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2507,40 +2574,40 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L12" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M12" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
         <v>23.5</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
@@ -2561,22 +2628,22 @@
         <v>106.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2588,16 +2655,16 @@
         <v>6</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>5</v>
@@ -2606,13 +2673,13 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2621,13 +2688,13 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>16</v>
@@ -2785,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
         <v>3</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -2937,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2961,7 +3028,7 @@
         <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,7 +3037,7 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>21</v>
@@ -2994,13 +3061,13 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3167,7 +3234,7 @@
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3235,7 +3302,7 @@
         <v>82.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3253,13 +3320,13 @@
         <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>13.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
         <v>42.8</v>
@@ -3268,31 +3335,31 @@
         <v>21.3</v>
       </c>
       <c r="V16" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3301,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3334,25 +3401,25 @@
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>2</v>
@@ -3513,25 +3580,25 @@
         <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.517</v>
+        <v>0.508</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,19 +3663,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>86.8</v>
+        <v>87</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
         <v>15.8</v>
@@ -3620,19 +3687,19 @@
         <v>0.736</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
         <v>43.6</v>
       </c>
       <c r="U18" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
         <v>8.5</v>
@@ -3641,7 +3708,7 @@
         <v>7.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z18" t="n">
         <v>19.3</v>
@@ -3650,22 +3717,22 @@
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>14</v>
@@ -3680,16 +3747,16 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>20</v>
@@ -3713,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3790,19 +3857,19 @@
         <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.296</v>
+        <v>0.297</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R19" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S19" t="n">
         <v>30.3</v>
@@ -3814,13 +3881,13 @@
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>6.1</v>
@@ -3832,22 +3899,22 @@
         <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3874,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3892,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
         <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3966,22 +4033,22 @@
         <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
         <v>11.4</v>
@@ -3993,49 +4060,49 @@
         <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
         <v>14.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y20" t="n">
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
         <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
         <v>25</v>
       </c>
-      <c r="AF20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>27</v>
-      </c>
       <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
         <v>22</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4044,19 +4111,19 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4071,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4083,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC20" t="n">
         <v>23</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="n">
         <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,34 +4209,34 @@
         <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>10.8</v>
       </c>
       <c r="M21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O21" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
         <v>41.3</v>
@@ -4181,7 +4248,7 @@
         <v>12.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4196,13 +4263,13 @@
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,37 +4278,37 @@
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
         <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP21" t="n">
         <v>18</v>
       </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-4</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -4763,7 +4830,7 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="n">
         <v>41</v>
       </c>
       <c r="G25" t="n">
-        <v>0.349</v>
+        <v>0.339</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4876,40 +4943,40 @@
         <v>0.442</v>
       </c>
       <c r="L25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M25" t="n">
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="P25" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
         <v>30</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
         <v>5.4</v>
@@ -4921,40 +4988,40 @@
         <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -4966,28 +5033,28 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -4999,10 +5066,10 @@
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5160,7 +5227,7 @@
         <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -5300,16 +5367,16 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5512,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5536,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5700,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -5762,40 +5829,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
         <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
         <v>24.1</v>
@@ -5804,22 +5871,22 @@
         <v>0.766</v>
       </c>
       <c r="R30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S30" t="n">
         <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U30" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>6.5</v>
@@ -5834,13 +5901,13 @@
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5849,16 +5916,16 @@
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
@@ -5867,7 +5934,7 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
         <v>14</v>
@@ -5885,19 +5952,19 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
       </c>
       <c r="AU30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW30" t="n">
         <v>12</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>13</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
         <v>41</v>
       </c>
       <c r="G31" t="n">
-        <v>0.328</v>
+        <v>0.317</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5962,34 +6029,34 @@
         <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.356</v>
+        <v>0.352</v>
       </c>
       <c r="O31" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P31" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
         <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T31" t="n">
         <v>43.4</v>
@@ -6010,19 +6077,19 @@
         <v>4.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.3</v>
+        <v>-3.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6064,10 +6131,10 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6079,13 +6146,13 @@
         <v>29</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-9-2012-13</t>
+          <t>2013-03-09</t>
         </is>
       </c>
     </row>
